--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t>土地坐落</t>
   </si>
@@ -317,10 +317,22 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
     <t>晨星半導體股份有限公司</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1848,13 +1860,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1873,13 +1885,22 @@
       <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1896,13 +1917,22 @@
       <c r="G2" s="2">
         <v>778540</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>68</v>
@@ -1919,13 +1949,22 @@
       <c r="G3" s="2">
         <v>773350</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>68</v>
@@ -1941,6 +1980,15 @@
       </c>
       <c r="G4" s="2">
         <v>253200</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -1958,13 +2006,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1972,10 +2020,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1986,10 +2034,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>68</v>
@@ -2013,19 +2061,19 @@
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2033,13 +2081,13 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -2048,7 +2096,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2056,22 +2104,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2079,22 +2127,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2102,22 +2150,22 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2125,22 +2173,22 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2148,13 +2196,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -2163,7 +2211,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2171,22 +2219,22 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2204,22 +2252,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2230,19 +2278,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -317,6 +317,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -330,6 +333,9 @@
   </si>
   <si>
     <t>晨星半導體股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-17</t>
@@ -1860,13 +1866,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1894,13 +1900,16 @@
       <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1918,21 +1927,24 @@
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2">
+        <v>105</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>68</v>
@@ -1950,21 +1962,24 @@
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2">
+        <v>105</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>68</v>
@@ -1982,12 +1997,15 @@
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2">
+        <v>105</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
         <v>898</v>
       </c>
     </row>
@@ -2006,13 +2024,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2020,10 +2038,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -2034,10 +2052,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>68</v>
@@ -2061,19 +2079,19 @@
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2081,13 +2099,13 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -2096,7 +2114,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2104,22 +2122,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2127,22 +2145,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2150,22 +2168,22 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2173,22 +2191,22 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2196,13 +2214,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -2211,7 +2229,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2219,22 +2237,22 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2252,22 +2270,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2278,19 +2296,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="145">
   <si>
     <t>土地坐落</t>
   </si>
@@ -320,6 +320,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -329,6 +332,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
@@ -338,7 +347,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmp6101</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1866,13 +1881,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1903,13 +1918,22 @@
       <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1927,24 +1951,33 @@
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2">
+        <v>109</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
         <v>898</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>68</v>
@@ -1962,24 +1995,33 @@
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2">
+        <v>109</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
         <v>898</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>68</v>
@@ -1997,16 +2039,25 @@
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2">
+        <v>109</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
         <v>898</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2024,13 +2075,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2038,10 +2089,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -2052,10 +2103,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>68</v>
@@ -2079,19 +2130,19 @@
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2099,13 +2150,13 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -2114,7 +2165,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2122,22 +2173,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2145,22 +2196,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2168,22 +2219,22 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2191,22 +2242,22 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2214,13 +2265,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -2229,7 +2280,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2237,22 +2288,22 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2270,22 +2321,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2296,19 +2347,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,9 +21,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="145">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="144">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段05830000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段05830001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段05830002地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段05110000地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段05110001地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段05110002地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段00140000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段02250000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段01910000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段04250003地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段04250008地號</t>
+  </si>
+  <si>
+    <t>10000分之59</t>
+  </si>
+  <si>
+    <t>10000分之129</t>
+  </si>
+  <si>
+    <t>10000分之252</t>
+  </si>
+  <si>
+    <t>10000分之89</t>
+  </si>
+  <si>
+    <t>10000分之105</t>
+  </si>
+  <si>
+    <t>100000分之226</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>李鴻鈞</t>
+  </si>
+  <si>
+    <t>李鴻韵</t>
+  </si>
+  <si>
+    <t>89年07月24日</t>
+  </si>
+  <si>
+    <t>82年05月26日</t>
+  </si>
+  <si>
+    <t>96年04月17日</t>
+  </si>
+  <si>
+    <t>97年02月12日</t>
+  </si>
+  <si>
+    <t>98年02月03日</t>
+  </si>
+  <si>
+    <t>98年05月22日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>50565900</t>
+  </si>
+  <si>
+    <t>1207500</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmp6101</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,136 +197,31 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區中正段二小段 0583-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 0583-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 0583-0002 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段0511-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段0511-0001 地號 '</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段0511 -0002 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段0014-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0225-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段 0191-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段 0425-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段 0425-0008 地號</t>
-  </si>
-  <si>
-    <t>10000分之 59</t>
-  </si>
-  <si>
-    <t>10000分之 129</t>
-  </si>
-  <si>
-    <t>10000分之 252</t>
-  </si>
-  <si>
-    <t>10000分之 89</t>
-  </si>
-  <si>
-    <t>10000分之 105</t>
-  </si>
-  <si>
-    <t>100000 分 之226</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>李鴻鈞</t>
-  </si>
-  <si>
-    <t>李鴻韵</t>
-  </si>
-  <si>
-    <t>89年07月 24日</t>
-  </si>
-  <si>
-    <t>82年05月 26日</t>
-  </si>
-  <si>
-    <t>82年Q5月 26日</t>
-  </si>
-  <si>
-    <t>96年04月 17日</t>
-  </si>
-  <si>
-    <t>97年02月 12日</t>
-  </si>
-  <si>
-    <t>98年02月 03日</t>
-  </si>
-  <si>
-    <t>98年05月 22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年)’</t>
-  </si>
-  <si>
-    <t>50，565，900</t>
-  </si>
-  <si>
-    <t>1，207，500</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 01938-000 建號（（陽台 10.5$ 平 方公尺花台4.78平方公尺））</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 01928-000 建號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段00621-000 建號((陽台13.44平方公尺花台 0.70平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04004-000 建號((含停車位編號104號))</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04017-000 建號((含停車位編號103號））.</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04001-000 建號((含停車位編號128號及陽 台7.94平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04014-000 建號（（含停車位編號129號及陽 台10.03平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段02913-000 建號((含停車位2位編號41.42 號））</t>
-  </si>
-  <si>
-    <t>建 物</t>
+    <t>臺北市中正區中正段二小段01938000建號（（陽台10.5$平方公尺花台4.78平方公尺））</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段01928000建號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段00621000建號((陽台13.44平方公尺花台0.70平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04004000建號((含停車位編號104號))</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04017000建號((含停車位編號103號））.</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04001000建號((含停車位編號128號及陽台7.94平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04014000建號（（含停車位編號129號及陽台10.03平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段02913000建號((含停車位2位編號41.42號））</t>
+  </si>
+  <si>
+    <t>建物</t>
   </si>
   <si>
     <t>標</t>
@@ -188,22 +236,16 @@
     <t>示</t>
   </si>
   <si>
-    <t>李鴻鈞 ■</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>98年02月 04日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>3’680，000</t>
-  </si>
-  <si>
-    <t>1’870，000</t>
+    <t>李鴻鈞■</t>
+  </si>
+  <si>
+    <t>98年02月04日</t>
+  </si>
+  <si>
+    <t>3680000</t>
+  </si>
+  <si>
+    <t>1870000</t>
   </si>
   <si>
     <t>變動時間</t>
@@ -218,22 +260,19 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>•登記（取得）時間</t>
-  </si>
-  <si>
-    <t>BMW 740LI SEDAN</t>
-  </si>
-  <si>
-    <t>LEXUS ES350</t>
+    <t>BMW740LISEDAN</t>
+  </si>
+  <si>
+    <t>LEXUSES350</t>
   </si>
   <si>
     <t>劉素幸</t>
   </si>
   <si>
-    <t>96年02月 08日</t>
-  </si>
-  <si>
-    <t>97年04月 24 .日</t>
+    <t>96年02月08日</t>
+  </si>
+  <si>
+    <t>97年04月24.日</t>
   </si>
   <si>
     <t>存放梭構(應敘明分支機構）</t>
@@ -278,7 +317,7 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>國泰世華商業銀行敦化分 行</t>
+    <t>國泰世華商業銀行敦化分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -299,12 +338,6 @@
     <t>劉窣幸</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -317,27 +350,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
@@ -347,15 +359,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmp6101</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -368,10 +371,10 @@
     <t>安泰人壽</t>
   </si>
   <si>
-    <t>靈活理財變額保險乙型(投資 型保險）</t>
-  </si>
-  <si>
-    <t>靈活理財變額保險乙型(投資 型榇險）</t>
+    <t>靈活理財變額保險乙型(投資型保險）</t>
+  </si>
+  <si>
+    <t>靈活理財變額保險乙型(投資型榇險）</t>
   </si>
   <si>
     <t>債務人</t>
@@ -395,39 +398,33 @@
     <t>抵押貸款.</t>
   </si>
   <si>
-    <t>抵押貸款 .</t>
-  </si>
-  <si>
-    <t>陽信商業銀行 臺北市士林區中正路</t>
-  </si>
-  <si>
-    <t>第一商業銀行 臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>合庫商業銀行 臺北市中正區館前路</t>
-  </si>
-  <si>
-    <t>台灣土地銀行 臺北市中正區館前路</t>
-  </si>
-  <si>
-    <t>96年05月 16日</t>
-  </si>
-  <si>
-    <t>82年11月 09日</t>
-  </si>
-  <si>
-    <t>97年05月 13日</t>
-  </si>
-  <si>
-    <t>98年06月 19日</t>
+    <t>陽信商業銀行臺北市士林區中正路</t>
+  </si>
+  <si>
+    <t>第一商業銀行臺北市中正區重慶南路</t>
+  </si>
+  <si>
+    <t>合庫商業銀行臺北市中正區館前路</t>
+  </si>
+  <si>
+    <t>台灣土地銀行臺北市中正區館前路</t>
+  </si>
+  <si>
+    <t>96年05月16日</t>
+  </si>
+  <si>
+    <t>82年11月09日</t>
+  </si>
+  <si>
+    <t>97年05月13日</t>
+  </si>
+  <si>
+    <t>98年06月19日</t>
   </si>
   <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>購屋貸款，</t>
-  </si>
-  <si>
     <t>購地融資</t>
   </si>
   <si>
@@ -452,7 +449,7 @@
     <t>新北市泰林路二段47號</t>
   </si>
   <si>
-    <t>86年01月 27日</t>
+    <t>86年01月27日</t>
   </si>
   <si>
     <t>原始股東</t>
@@ -814,13 +811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,317 +839,590 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>898</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>402</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>898</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>898</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1904.77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>898</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>21.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>898</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>22.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>898</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>4863.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>16960000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>898</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>4863.81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>9390000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>898</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>13558.99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>11520000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>898</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>796</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>898</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="2">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>898</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="2">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
         <v>10672200</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>898</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1170,25 +1440,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1196,25 +1466,25 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>87.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1222,25 +1492,25 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>2132.23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1248,25 +1518,25 @@
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>102.19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1274,22 +1544,22 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <v>75.84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
         <v>3570000</v>
@@ -1300,25 +1570,25 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
         <v>77.52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1326,22 +1596,22 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>92.66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>2160000</v>
@@ -1352,25 +1622,25 @@
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
         <v>77.61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1378,22 +1648,22 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>145.47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
         <v>10480000</v>
@@ -1404,25 +1674,25 @@
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1440,22 +1710,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1463,19 +1733,19 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>4200000</v>
@@ -1486,19 +1756,19 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>2050000</v>
@@ -1519,19 +1789,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1539,16 +1809,16 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
         <v>1389320</v>
@@ -1559,16 +1829,16 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
         <v>3748061</v>
@@ -1579,16 +1849,16 @@
         <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>62120</v>
@@ -1599,16 +1869,16 @@
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>220471</v>
@@ -1619,16 +1889,16 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>2092079</v>
@@ -1639,16 +1909,16 @@
         <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>4025</v>
@@ -1659,16 +1929,16 @@
         <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>436526</v>
@@ -1679,16 +1949,16 @@
         <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>1330726</v>
@@ -1699,16 +1969,16 @@
         <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2">
         <v>432939</v>
@@ -1719,16 +1989,16 @@
         <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
@@ -1739,16 +2009,16 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>218467</v>
@@ -1759,16 +2029,16 @@
         <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2">
         <v>308807</v>
@@ -1779,16 +2049,16 @@
         <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2">
         <v>481934</v>
@@ -1799,16 +2069,16 @@
         <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>1079</v>
@@ -1819,16 +2089,16 @@
         <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2">
         <v>11600</v>
@@ -1839,16 +2109,16 @@
         <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2">
         <v>2270000</v>
@@ -1859,16 +2129,16 @@
         <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2">
         <v>231830</v>
@@ -1889,43 +2159,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1933,10 +2203,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>77854</v>
@@ -1945,28 +2215,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>898</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2">
         <v>96</v>
@@ -1977,10 +2247,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2">
         <v>77335</v>
@@ -1989,28 +2259,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2">
         <v>898</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>97</v>
@@ -2021,10 +2291,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2">
         <v>25320</v>
@@ -2033,28 +2303,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2">
         <v>898</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2">
         <v>98</v>
@@ -2075,13 +2345,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2089,13 +2359,13 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2103,13 +2373,13 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2127,22 +2397,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2150,10 +2420,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>125</v>
@@ -2162,7 +2432,7 @@
         <v>7793577</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>133</v>
@@ -2173,10 +2443,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>125</v>
@@ -2196,10 +2466,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>125</v>
@@ -2219,10 +2489,10 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>126</v>
@@ -2234,7 +2504,7 @@
         <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2245,7 +2515,7 @@
         <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>127</v>
@@ -2265,10 +2535,10 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>128</v>
@@ -2277,7 +2547,7 @@
         <v>15500000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>133</v>
@@ -2288,10 +2558,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>127</v>
@@ -2303,7 +2573,7 @@
         <v>132</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2321,22 +2591,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2344,22 +2614,22 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中正區中正段二小段05830000地號</t>
+  </si>
+  <si>
     <t>臺北市中正區中正段二小段05830001地號</t>
   </si>
   <si>
@@ -155,12 +158,12 @@
     <t>貝賣</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>(超過五年)</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>50565900</t>
   </si>
   <si>
@@ -182,64 +185,43 @@
     <t>臺北市中正區中正段二小段01938000建號（（陽台10.5$平方公尺花台4.78平方公尺））</t>
   </si>
   <si>
+    <t>臺北市中正區中正段二小段01928000建號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段00621000建號((陽台13.44平方公尺花台0.70平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04004000建號((含停車位編號104號))</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04017000建號((含停車位編號103號））.</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04001000建號((含停車位編號128號及陽台7.94平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04014000建號（（含停車位編號129號及陽台10.03平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段02913000建號((含停車位2位編號41.42號））</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>臺北市中正區中正段二小段01928000建號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段00621000建號((陽台13.44平方公尺花台0.70平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04004000建號((含停車位編號104號))</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04017000建號((含停車位編號103號））.</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04001000建號((含停車位編號128號及陽台7.94平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04014000建號（（含停車位編號129號及陽台10.03平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段02913000建號((含停車位2位編號41.42號））</t>
-  </si>
-  <si>
-    <t>建物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
     <t>56分之1</t>
   </si>
   <si>
-    <t>示</t>
-  </si>
-  <si>
     <t>李鴻鈞■</t>
   </si>
   <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
     <t>98年02月04日</t>
   </si>
   <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
     <t>3680000</t>
   </si>
   <si>
     <t>1870000</t>
-  </si>
-  <si>
-    <t>變動時間</t>
   </si>
   <si>
     <t>BMW740LISEDAN</t>
@@ -739,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,328 +779,328 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>402</v>
+        <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2">
         <v>898</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>0.0059</v>
       </c>
       <c r="Q2" s="2">
-        <v>2.3718</v>
+        <v>11.9357</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2">
         <v>898</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0059</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.5133</v>
+        <v>2.3718</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1904.77</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2">
         <v>898</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0129</v>
+        <v>0.0059</v>
       </c>
       <c r="Q4" s="2">
-        <v>24.571533</v>
+        <v>0.5133</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>21.21</v>
+        <v>1904.77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>898</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0252</v>
+        <v>0.0129</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.534492</v>
+        <v>24.571533</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>22.2</v>
+        <v>21.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2">
         <v>898</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0129</v>
+        <v>0.0252</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.28638</v>
+        <v>0.534492</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>4863.81</v>
+        <v>22.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16960000</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2">
         <v>898</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0089</v>
+        <v>0.0129</v>
       </c>
       <c r="Q7" s="2">
-        <v>43.287909</v>
+        <v>0.28638</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>4863.81</v>
@@ -1127,113 +1109,113 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
-        <v>9390000</v>
+        <v>16960000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2">
         <v>898</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0105</v>
+        <v>0.0089</v>
       </c>
       <c r="Q8" s="2">
-        <v>51.070005</v>
+        <v>43.287909</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>13558.99</v>
+        <v>4863.81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
-        <v>11520000</v>
+        <v>9390000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="2">
         <v>898</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2">
-        <v>0.00226</v>
+        <v>0.0105</v>
       </c>
       <c r="Q9" s="2">
-        <v>30.6433174</v>
+        <v>51.070005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>796</v>
+        <v>13558.99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>40</v>
@@ -1241,55 +1223,55 @@
       <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>46</v>
+      <c r="H10" s="2">
+        <v>11520000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="2">
         <v>898</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="2">
-        <v>0.1</v>
+        <v>0.00226</v>
       </c>
       <c r="Q10" s="2">
-        <v>79.6</v>
+        <v>30.6433174</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>19</v>
+        <v>796</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>43</v>
@@ -1298,83 +1280,136 @@
         <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="2">
         <v>898</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O11" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="2">
         <v>0.1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.9</v>
+        <v>79.6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="2">
-        <v>10672200</v>
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="2">
         <v>898</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O12" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="2">
         <v>0.1</v>
       </c>
       <c r="Q12" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>168</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10672200</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
+        <v>898</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>16.8</v>
       </c>
     </row>
@@ -1385,241 +1420,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
         <v>87.2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2132.23</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>898</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
-        <v>102.19</v>
+        <v>2132.23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>898</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2">
+        <v>38</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>38.0755357142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
-        <v>75.84</v>
+        <v>102.19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>898</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="2">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>102.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2">
+        <v>75.84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3570000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>898</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>41</v>
       </c>
-      <c r="H4" s="2">
-        <v>3570000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>77.52</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2">
-        <v>92.66</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>898</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="2">
         <v>41</v>
       </c>
-      <c r="H6" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>77.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2">
+        <v>92.66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2">
         <v>2160000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
+        <v>898</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="2">
+        <v>42</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>77.61</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>898</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>145.47</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2">
         <v>10480000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>72</v>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2">
+        <v>898</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>145.47</v>
       </c>
     </row>
   </sheetData>
@@ -1628,6 +1906,887 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2050000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1389320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1389320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3748061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2">
+        <v>62120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>220471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2092079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>436526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1330726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2">
+        <v>432939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2">
+        <v>218467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2">
+        <v>308807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>481934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2270000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="2">
+        <v>231830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2">
+        <v>77854</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2">
+        <v>778540</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2">
+        <v>77335</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2">
+        <v>773350</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>898</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25320</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2">
+        <v>253200</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2">
+        <v>898</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7793577</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7793577</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9800000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>132</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9800000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="2">
+        <v>506059</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>134</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9878940</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2">
+        <v>49900000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1637,779 +2796,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4000</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4200000</v>
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2050000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1389320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3748061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>62120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
-        <v>220471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2092079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>78</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
-        <v>436526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>80</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1330726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>81</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2">
-        <v>432939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>83</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
-        <v>218467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2">
-        <v>308807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>85</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2">
-        <v>481934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>86</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2">
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>88</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2270000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>89</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="2">
-        <v>231830</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2">
-        <v>77335</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2">
-        <v>773350</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2">
-        <v>898</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25320</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2">
-        <v>253200</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2">
-        <v>898</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="2">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7793577</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9800000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>136</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9800000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>137</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="2">
-        <v>506059</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>138</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9878940</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>140</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15500000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>141</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="2">
-        <v>49900000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -224,16 +224,19 @@
     <t>1870000</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BMW740LISEDAN</t>
   </si>
   <si>
+    <t>LEXUSES350</t>
+  </si>
+  <si>
+    <t>劉素幸</t>
+  </si>
+  <si>
     <t>96年02月08日</t>
-  </si>
-  <si>
-    <t>LEXUSES350</t>
-  </si>
-  <si>
-    <t>劉素幸</t>
   </si>
   <si>
     <t>97年04月24.日</t>
@@ -1907,38 +1910,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1">
-        <v>4000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
@@ -1947,7 +1971,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -1955,8 +1979,29 @@
       <c r="G2" s="2">
         <v>4200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>55</v>
       </c>
@@ -1970,13 +2015,34 @@
         <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>2050000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>898</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1994,13 +2060,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -2014,13 +2080,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2034,13 +2100,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2054,13 +2120,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2074,13 +2140,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2094,13 +2160,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2114,13 +2180,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2134,13 +2200,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2154,13 +2220,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2174,13 +2240,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>70</v>
@@ -2194,16 +2260,16 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
@@ -2214,13 +2280,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2234,13 +2300,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>70</v>
@@ -2254,13 +2320,13 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>70</v>
@@ -2274,13 +2340,13 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2294,13 +2360,13 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>70</v>
@@ -2314,13 +2380,13 @@
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2334,13 +2400,13 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>70</v>
@@ -2370,13 +2436,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2408,7 +2474,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2420,13 +2486,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>50</v>
@@ -2452,7 +2518,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
@@ -2464,13 +2530,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>50</v>
@@ -2496,7 +2562,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>70</v>
@@ -2508,13 +2574,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>50</v>
@@ -2550,10 +2616,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2564,10 +2630,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2578,10 +2644,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
@@ -2602,13 +2668,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>7793577</v>
@@ -2617,7 +2683,7 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2625,13 +2691,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -2640,7 +2706,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2648,22 +2714,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2671,22 +2737,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2694,22 +2760,22 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2717,22 +2783,22 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2740,13 +2806,13 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -2755,7 +2821,7 @@
         <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2763,22 +2829,22 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2799,19 +2865,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2822,19 +2888,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -224,6 +224,9 @@
     <t>1870000</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -240,6 +243,9 @@
   </si>
   <si>
     <t>97年04月24.日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺北縣泰山鄉農會</t>
@@ -1505,7 +1511,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>50</v>
@@ -1558,7 +1564,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>50</v>
@@ -1611,7 +1617,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>50</v>
@@ -1664,7 +1670,7 @@
         <v>3570000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>50</v>
@@ -1717,7 +1723,7 @@
         <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>50</v>
@@ -1770,7 +1776,7 @@
         <v>2160000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>50</v>
@@ -1823,7 +1829,7 @@
         <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>50</v>
@@ -1876,7 +1882,7 @@
         <v>10480000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>50</v>
@@ -1921,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1962,7 +1968,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
@@ -1971,7 +1977,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -1980,7 +1986,7 @@
         <v>4200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>50</v>
@@ -2006,16 +2012,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>42</v>
@@ -2024,7 +2030,7 @@
         <v>2050000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>50</v>
@@ -2060,13 +2066,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -2080,13 +2086,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2100,13 +2106,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2120,13 +2126,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2140,13 +2146,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2160,13 +2166,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2180,13 +2186,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2200,13 +2206,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2220,13 +2226,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2240,16 +2246,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2">
         <v>432939</v>
@@ -2260,16 +2266,16 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
@@ -2280,13 +2286,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2300,16 +2306,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2">
         <v>308807</v>
@@ -2320,16 +2326,16 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2">
         <v>481934</v>
@@ -2340,13 +2346,13 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2360,16 +2366,16 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2">
         <v>11600</v>
@@ -2380,13 +2386,13 @@
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2400,16 +2406,16 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2">
         <v>231830</v>
@@ -2436,13 +2442,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2474,7 +2480,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2486,13 +2492,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>50</v>
@@ -2518,10 +2524,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>77335</v>
@@ -2530,13 +2536,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>50</v>
@@ -2562,10 +2568,10 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>25320</v>
@@ -2574,13 +2580,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>50</v>
@@ -2616,10 +2622,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2630,10 +2636,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2644,13 +2650,13 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2668,13 +2674,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>7793577</v>
@@ -2683,7 +2689,7 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2691,13 +2697,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -2706,7 +2712,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2714,22 +2720,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2737,22 +2743,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2760,22 +2766,22 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2783,22 +2789,22 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2806,13 +2812,13 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -2821,7 +2827,7 @@
         <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2829,22 +2835,22 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2865,19 +2871,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2888,19 +2894,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -248,64 +248,73 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺北縣泰山鄉農會</t>
   </si>
   <si>
+    <t>陽信商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>上海商業儲蓄銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦化分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>陽信商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>台灣銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>上海商業儲蓄銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦化分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>新臺$</t>
   </si>
   <si>
     <t>劉窣幸</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>欣泰石油氣股份有限公司</t>
@@ -2058,13 +2067,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2075,24 +2084,45 @@
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1389320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2100,19 +2130,40 @@
       <c r="F2" s="2">
         <v>1389320</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>898</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2120,19 +2171,40 @@
       <c r="F3" s="2">
         <v>3748061</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>898</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2140,19 +2212,40 @@
       <c r="F4" s="2">
         <v>62120</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>898</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2160,19 +2253,40 @@
       <c r="F5" s="2">
         <v>220471</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2">
+        <v>898</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2180,19 +2294,40 @@
       <c r="F6" s="2">
         <v>2092079</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2">
+        <v>898</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2200,19 +2335,40 @@
       <c r="F7" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>898</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2220,19 +2376,40 @@
       <c r="F8" s="2">
         <v>436526</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2">
+        <v>898</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2240,19 +2417,40 @@
       <c r="F9" s="2">
         <v>1330726</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>898</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
@@ -2260,39 +2458,81 @@
       <c r="F10" s="2">
         <v>432939</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>898</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2">
+        <v>898</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2300,19 +2540,40 @@
       <c r="F12" s="2">
         <v>218467</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2">
+        <v>898</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>71</v>
@@ -2320,19 +2581,40 @@
       <c r="F13" s="2">
         <v>308807</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2">
+        <v>898</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>71</v>
@@ -2340,19 +2622,40 @@
       <c r="F14" s="2">
         <v>481934</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2">
+        <v>898</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2360,19 +2663,40 @@
       <c r="F15" s="2">
         <v>1079</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2">
+        <v>898</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
@@ -2380,19 +2704,40 @@
       <c r="F16" s="2">
         <v>11600</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2">
+        <v>898</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2400,25 +2745,67 @@
       <c r="F17" s="2">
         <v>2270000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2">
+        <v>898</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="2">
         <v>231830</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2">
+        <v>898</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2442,13 +2829,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2480,7 +2867,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2492,13 +2879,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>50</v>
@@ -2524,7 +2911,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -2536,13 +2923,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>50</v>
@@ -2568,7 +2955,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
@@ -2580,13 +2967,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>50</v>
@@ -2622,10 +3009,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2636,10 +3023,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2650,10 +3037,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>71</v>
@@ -2674,13 +3061,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>7793577</v>
@@ -2689,7 +3076,7 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2697,13 +3084,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -2712,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2720,22 +3107,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2743,22 +3130,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2766,22 +3153,22 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2789,22 +3176,22 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2812,13 +3199,13 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -2827,7 +3214,7 @@
         <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2835,22 +3222,22 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2871,19 +3258,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2894,19 +3281,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>56分之1</t>
-  </si>
-  <si>
-    <t>李鴻鈞■</t>
   </si>
   <si>
     <t>98年02月04日</t>
@@ -1520,7 +1517,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>50</v>
@@ -1573,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>50</v>
@@ -1614,7 +1611,7 @@
         <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>37</v>
@@ -1626,7 +1623,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>50</v>
@@ -1679,7 +1676,7 @@
         <v>3570000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>50</v>
@@ -1729,10 +1726,10 @@
         <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>50</v>
@@ -1785,7 +1782,7 @@
         <v>2160000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>50</v>
@@ -1835,10 +1832,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>50</v>
@@ -1882,7 +1879,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>44</v>
@@ -1891,7 +1888,7 @@
         <v>10480000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>50</v>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1977,7 +1974,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
@@ -1986,7 +1983,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -1995,7 +1992,7 @@
         <v>4200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>50</v>
@@ -2021,16 +2018,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>42</v>
@@ -2039,7 +2036,7 @@
         <v>2050000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>50</v>
@@ -2075,13 +2072,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2116,13 +2113,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2131,7 +2128,7 @@
         <v>1389320</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>50</v>
@@ -2157,13 +2154,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2172,7 +2169,7 @@
         <v>3748061</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>50</v>
@@ -2198,13 +2195,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2213,7 +2210,7 @@
         <v>62120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>50</v>
@@ -2239,13 +2236,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2254,7 +2251,7 @@
         <v>220471</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>50</v>
@@ -2280,13 +2277,13 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2295,7 +2292,7 @@
         <v>2092079</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>50</v>
@@ -2321,13 +2318,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2336,7 +2333,7 @@
         <v>4025</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>50</v>
@@ -2362,13 +2359,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2377,7 +2374,7 @@
         <v>436526</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>50</v>
@@ -2403,13 +2400,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2418,7 +2415,7 @@
         <v>1330726</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>50</v>
@@ -2444,22 +2441,22 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2">
         <v>432939</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>50</v>
@@ -2485,22 +2482,22 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>50</v>
@@ -2526,13 +2523,13 @@
         <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2541,7 +2538,7 @@
         <v>218467</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>50</v>
@@ -2567,22 +2564,22 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2">
         <v>308807</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>50</v>
@@ -2608,22 +2605,22 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2">
         <v>481934</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>50</v>
@@ -2649,13 +2646,13 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2664,7 +2661,7 @@
         <v>1079</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>50</v>
@@ -2690,22 +2687,22 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2">
         <v>11600</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>50</v>
@@ -2731,13 +2728,13 @@
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2746,7 +2743,7 @@
         <v>2270000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>50</v>
@@ -2772,22 +2769,22 @@
         <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2">
         <v>231830</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>50</v>
@@ -2829,13 +2826,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2867,7 +2864,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2879,13 +2876,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>50</v>
@@ -2911,10 +2908,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>77335</v>
@@ -2923,13 +2920,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>50</v>
@@ -2955,10 +2952,10 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <v>25320</v>
@@ -2967,13 +2964,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>50</v>
@@ -3009,10 +3006,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -3023,10 +3020,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -3037,13 +3034,13 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3061,13 +3058,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>7793577</v>
@@ -3076,7 +3073,7 @@
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3084,13 +3081,13 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -3099,7 +3096,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3107,22 +3104,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3130,22 +3127,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3153,22 +3150,22 @@
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3176,22 +3173,22 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3199,22 +3196,22 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3222,22 +3219,22 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3258,19 +3255,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3281,19 +3278,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2011-11-17_財產申報表_tmp6101.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -323,6 +323,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>安泰人壽</t>
   </si>
   <si>
@@ -332,42 +335,57 @@
     <t>靈活理財變額保險乙型(投資型榇險）</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>抵押貸款.</t>
+  </si>
+  <si>
     <t>陽信商業銀行臺北市士林區中正路</t>
   </si>
   <si>
+    <t>第一商業銀行臺北市中正區重慶南路</t>
+  </si>
+  <si>
+    <t>合庫商業銀行臺北市中正區館前路</t>
+  </si>
+  <si>
+    <t>台灣土地銀行臺北市中正區館前路</t>
+  </si>
+  <si>
+    <t>96年05月16日</t>
+  </si>
+  <si>
+    <t>82年11月09日</t>
+  </si>
+  <si>
+    <t>97年05月13日</t>
+  </si>
+  <si>
+    <t>98年06月19日</t>
+  </si>
+  <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>抵押貸款.</t>
-  </si>
-  <si>
-    <t>第一商業銀行臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>合庫商業銀行臺北市中正區館前路</t>
-  </si>
-  <si>
-    <t>台灣土地銀行臺北市中正區館前路</t>
-  </si>
-  <si>
-    <t>96年05月16日</t>
-  </si>
-  <si>
-    <t>82年11月09日</t>
-  </si>
-  <si>
-    <t>97年05月13日</t>
-  </si>
-  <si>
-    <t>98年06月19日</t>
-  </si>
-  <si>
     <t>購地融資</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>永錡加油站股份有限公司</t>
   </si>
   <si>
@@ -378,6 +396,9 @@
   </si>
   <si>
     <t>原始股東</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2998,49 +3019,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2">
+        <v>898</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2">
+        <v>898</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3050,44 +3134,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7793577</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>7793577</v>
@@ -3096,113 +3201,218 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>9800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>898</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>9800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2">
+        <v>898</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2">
         <v>506059</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2">
+        <v>898</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2">
         <v>9878940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2">
+        <v>898</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2">
         <v>15500000</v>
@@ -3211,30 +3421,72 @@
         <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2">
+        <v>898</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2">
         <v>49900000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2">
+        <v>898</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="2">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3244,33 +3496,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>142</v>
       </c>
@@ -3278,19 +3551,40 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="2">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
